--- a/Data/First_test.xlsx
+++ b/Data/First_test.xlsx
@@ -14,147 +14,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="48">
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>ę</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>ł</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>k</t>
+    <t>E</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
   <si>
     <t>K</t>
   </si>
   <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>ł</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>y</t>
+    <t>ż</t>
   </si>
   <si>
     <t>f</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>ż</t>
-  </si>
-  <si>
-    <t>ó</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>0</t>
@@ -503,262 +500,262 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
       <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Z2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="AO2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AY2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>25</v>
       </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>27</v>
-      </c>
       <c r="BA2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="s">
         <v>22</v>
       </c>
       <c r="BC2" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="BE2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="s">
         <v>22</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>9</v>
       </c>
       <c r="BG2" t="s">
         <v>22</v>
       </c>
       <c r="BH2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI2" t="s">
         <v>22</v>
       </c>
-      <c r="BI2" t="s">
-        <v>27</v>
-      </c>
       <c r="BJ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK2" t="s">
         <v>22</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>0</v>
       </c>
-      <c r="BL2" t="s">
-        <v>27</v>
-      </c>
       <c r="BM2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BN2" t="s">
         <v>22</v>
       </c>
-      <c r="BN2" t="s">
-        <v>0</v>
-      </c>
       <c r="BO2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BP2" t="s">
         <v>22</v>
       </c>
       <c r="BQ2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BU2" t="s">
         <v>25</v>
       </c>
-      <c r="BR2" t="s">
-        <v>27</v>
-      </c>
-      <c r="BS2" t="s">
+      <c r="BV2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="s">
         <v>25</v>
       </c>
-      <c r="BT2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>0</v>
-      </c>
       <c r="BX2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BY2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ2" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>27</v>
-      </c>
       <c r="CA2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CB2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="CC2" t="s">
         <v>22</v>
       </c>
       <c r="CD2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="CE2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="CF2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="s">
         <v>22</v>
       </c>
-      <c r="CG2" t="s">
-        <v>16</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>27</v>
-      </c>
       <c r="CI2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="CJ2" t="s">
         <v>22</v>
@@ -770,63 +767,57 @@
         <v>0</v>
       </c>
       <c r="CM2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CN2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CQ2" t="s">
         <v>22</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CR2" t="s">
+        <v>25</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>25</v>
+      </c>
+      <c r="CT2" t="s">
         <v>22</v>
       </c>
-      <c r="CP2" t="s">
-        <v>25</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>27</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>27</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>22</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>25</v>
-      </c>
       <c r="CU2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="CV2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="CW2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="CX2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="CY2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="CZ2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="DA2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="DB2" t="s">
-        <v>10</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>4</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:117">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -835,360 +826,360 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W3" t="s">
         <v>42</v>
       </c>
       <c r="X3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Y3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AC3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH3" t="s">
         <v>43</v>
       </c>
       <c r="AI3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AJ3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AL3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AN3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AP3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AQ3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AR3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AT3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AU3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AV3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AW3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AX3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AY3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AZ3" t="s">
         <v>45</v>
       </c>
       <c r="BA3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="BB3" t="s">
         <v>39</v>
       </c>
       <c r="BC3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BD3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="BE3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BF3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BG3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BH3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BI3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BJ3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="BK3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="BL3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="BM3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="BN3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BO3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BP3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="BQ3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BR3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BS3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BT3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BU3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BV3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="BW3" t="s">
         <v>41</v>
       </c>
       <c r="BX3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BY3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BZ3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CA3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CB3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CC3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CD3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="CE3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="CF3" t="s">
         <v>45</v>
       </c>
       <c r="CG3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CH3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="CI3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="CJ3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="CK3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CL3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CM3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="CN3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="CO3" t="s">
         <v>43</v>
       </c>
       <c r="CP3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CQ3" t="s">
         <v>41</v>
       </c>
       <c r="CR3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="CS3" t="s">
         <v>43</v>
       </c>
       <c r="CT3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="CU3" t="s">
         <v>45</v>
       </c>
       <c r="CV3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CW3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CX3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:117">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
         <v>45</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s">
         <v>41</v>
@@ -1197,25 +1188,25 @@
         <v>42</v>
       </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X4" t="s">
         <v>45</v>
       </c>
       <c r="Y4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Z4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC4" t="s">
         <v>45</v>
@@ -1224,103 +1215,103 @@
         <v>41</v>
       </c>
       <c r="AE4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="s">
         <v>45</v>
       </c>
       <c r="AG4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AK4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AL4" t="s">
         <v>41</v>
       </c>
       <c r="AM4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AP4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AQ4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AR4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AS4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AT4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AU4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AV4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AW4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AX4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AY4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AZ4" t="s">
         <v>38</v>
       </c>
       <c r="BA4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BB4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BC4" t="s">
         <v>42</v>
       </c>
       <c r="BD4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BE4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BF4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BG4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BH4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BI4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="BJ4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="BK4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BL4" t="s">
         <v>42</v>
@@ -1329,85 +1320,85 @@
         <v>38</v>
       </c>
       <c r="BN4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BO4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="BP4" t="s">
         <v>45</v>
       </c>
       <c r="BQ4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BR4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BS4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BT4" t="s">
         <v>42</v>
       </c>
       <c r="BU4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="BV4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BW4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="BX4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="BY4" t="s">
         <v>38</v>
       </c>
       <c r="BZ4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CA4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="CB4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="CC4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CD4" t="s">
         <v>38</v>
       </c>
       <c r="CE4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="CF4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CG4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="CH4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="CI4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="CJ4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CK4" t="s">
         <v>42</v>
       </c>
       <c r="CL4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="CM4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="CN4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="CO4" t="s">
         <v>42</v>
@@ -1425,907 +1416,907 @@
         <v>38</v>
       </c>
       <c r="CT4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CU4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CV4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:117">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AE5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AO5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AP5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AQ5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AS5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AT5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AU5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AV5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AW5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AX5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BB5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BC5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BD5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BE5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BF5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BG5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BH5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BI5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BJ5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BK5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BL5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BM5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="BN5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BO5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="BP5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="BQ5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="BR5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="BS5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BT5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BU5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BV5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="BW5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="BX5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BY5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BZ5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CA5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CB5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CC5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CD5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CE5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="CF5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CG5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CH5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CI5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="CJ5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="CK5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CL5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="CM5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="CN5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CO5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="CP5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CQ5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="CR5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CS5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="CT5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CU5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CV5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:117">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB6" t="s">
         <v>46</v>
       </c>
-      <c r="P6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="AC6" t="s">
         <v>46</v>
       </c>
-      <c r="S6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" t="s">
-        <v>40</v>
-      </c>
-      <c r="X6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>43</v>
-      </c>
       <c r="AD6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG6" t="s">
         <v>46</v>
       </c>
-      <c r="AE6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="BH6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP6" t="s">
         <v>46</v>
       </c>
-      <c r="AN6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR6" t="s">
+      <c r="BQ6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BX6" t="s">
         <v>46</v>
       </c>
-      <c r="AS6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>47</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>38</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>43</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>38</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>40</v>
-      </c>
       <c r="BY6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="BZ6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="CA6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="CB6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="CC6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="CD6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="CE6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="CF6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="CG6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="CH6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="CI6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CJ6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CK6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="CL6" t="s">
         <v>43</v>
       </c>
       <c r="CM6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="CN6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CO6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="CP6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="CQ6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="CR6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="CS6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="CT6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="CU6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="CV6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="CW6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="CX6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CY6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CZ6" t="s">
         <v>40</v>
       </c>
       <c r="DA6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:117">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q7" t="s">
         <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AA7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AC7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AD7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AE7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AF7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AG7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AH7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AM7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AN7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AP7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AQ7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AR7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AS7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AT7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AU7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AV7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AW7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AX7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AY7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AZ7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="BA7" t="s">
         <v>45</v>
       </c>
       <c r="BB7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="BC7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="BD7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="BE7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="BF7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BG7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="BH7" t="s">
         <v>43</v>
       </c>
       <c r="BI7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="BJ7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="BK7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BL7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BM7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BN7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="BP7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BQ7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BR7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BS7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BT7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BU7" t="s">
         <v>45</v>
       </c>
       <c r="BV7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="BW7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="BX7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="BY7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BZ7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CA7" t="s">
         <v>41</v>
       </c>
       <c r="CB7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="CC7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CD7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CE7" t="s">
         <v>41</v>
       </c>
       <c r="CF7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="CG7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="CH7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="CI7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="CJ7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="CK7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CL7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CM7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="CN7" t="s">
         <v>45</v>
@@ -2337,264 +2328,264 @@
         <v>45</v>
       </c>
       <c r="CQ7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CR7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="CS7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CT7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CU7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CV7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="CW7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CX7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CY7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="CZ7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:117">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="s">
         <v>41</v>
       </c>
       <c r="AA8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AC8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AE8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AG8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AH8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AJ8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AN8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AO8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AP8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AT8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AU8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AV8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AW8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AX8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AY8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AZ8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BA8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BB8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BC8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BD8" t="s">
         <v>41</v>
       </c>
       <c r="BE8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BF8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BG8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BH8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BI8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BJ8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BK8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BL8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BM8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BN8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BO8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BP8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BQ8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BR8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BS8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BT8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BU8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BV8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BW8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BX8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BY8" t="s">
         <v>41</v>
@@ -2603,13 +2594,13 @@
         <v>41</v>
       </c>
       <c r="CA8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CB8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CC8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CD8" t="s">
         <v>41</v>
@@ -2618,106 +2609,106 @@
         <v>41</v>
       </c>
       <c r="CF8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="CG8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CI8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CJ8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CK8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CL8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CM8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CN8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CO8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CP8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CQ8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CR8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CS8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CT8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CU8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CV8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CW8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CX8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="CY8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="CZ8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="DA8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="DB8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="DC8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="DD8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DE8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="DF8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="DG8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="DH8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="DI8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="DJ8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="DK8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="DL8" t="s">
         <v>41</v>
       </c>
       <c r="DM8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Data/First_test.xlsx
+++ b/Data/First_test.xlsx
@@ -14,153 +14,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="49">
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
   <si>
     <t>A</t>
   </si>
   <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>ó</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>l</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
-    <t>n</t>
+    <t>b</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>ł</t>
   </si>
   <si>
     <t>y</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>ł</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>i</t>
+    <t>ż</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>p</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>ó</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>ż</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
     <t>ę</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>.</t>
@@ -506,172 +503,172 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="AJ2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="AM2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AS2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY2" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>22</v>
-      </c>
       <c r="AZ2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BA2" t="s">
         <v>19</v>
       </c>
       <c r="BB2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BC2" t="s">
         <v>0</v>
       </c>
       <c r="BD2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="BE2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BF2" t="s">
         <v>0</v>
@@ -680,34 +677,34 @@
         <v>0</v>
       </c>
       <c r="BH2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK2" t="s">
         <v>0</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BL2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP2" t="s">
         <v>0</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>22</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>10</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>24</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>24</v>
-      </c>
       <c r="BQ2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="BR2" t="s">
         <v>0</v>
@@ -716,521 +713,524 @@
         <v>0</v>
       </c>
       <c r="BT2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BU2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>30</v>
+      </c>
+      <c r="CB2" t="s">
         <v>0</v>
       </c>
-      <c r="BV2" t="s">
-        <v>24</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>24</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>24</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>24</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>24</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>10</v>
-      </c>
       <c r="CC2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="CD2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CE2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CF2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CG2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="CH2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CI2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CJ2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="CK2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="CL2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CM2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="CN2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="CO2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CP2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="CQ2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="CR2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="CS2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CT2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CU2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="CV2" t="s">
         <v>0</v>
       </c>
       <c r="CW2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CX2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="CY2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="CZ2" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:116">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s">
         <v>43</v>
       </c>
       <c r="T3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="W3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Z3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AD3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW3" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>43</v>
-      </c>
       <c r="AX3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY3" t="s">
         <v>40</v>
       </c>
-      <c r="AY3" t="s">
-        <v>48</v>
-      </c>
       <c r="AZ3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="BA3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BB3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BC3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BD3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BE3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="BF3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BG3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BH3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="BI3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BJ3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="BK3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="BL3" t="s">
         <v>41</v>
       </c>
       <c r="BM3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="BN3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BO3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="BP3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BQ3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="BR3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="BS3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BT3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV3" t="s">
         <v>47</v>
       </c>
       <c r="BW3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BX3" t="s">
         <v>47</v>
       </c>
       <c r="BY3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BZ3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="CA3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="CC3" t="s">
         <v>44</v>
       </c>
       <c r="CD3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="CE3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="CF3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CG3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="CH3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CI3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CJ3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CK3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="CL3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="CM3" t="s">
+        <v>41</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>39</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>43</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>44</v>
+      </c>
+      <c r="CR3" t="s">
         <v>40</v>
       </c>
-      <c r="CN3" t="s">
-        <v>41</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>39</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>43</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>47</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>39</v>
-      </c>
       <c r="CS3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="CT3" t="s">
         <v>40</v>
       </c>
       <c r="CU3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="CV3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CW3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CX3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:116">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="S4" t="s">
         <v>47</v>
       </c>
       <c r="T4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s">
         <v>47</v>
       </c>
       <c r="V4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="W4" t="s">
         <v>47</v>
       </c>
       <c r="X4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Z4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AA4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AE4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AG4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AJ4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AK4" t="s">
         <v>39</v>
@@ -1239,61 +1239,61 @@
         <v>39</v>
       </c>
       <c r="AM4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AN4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AO4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AP4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AQ4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AR4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AS4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AT4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AU4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AW4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AX4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AY4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AZ4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BA4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="BC4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="BD4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BE4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BF4" t="s">
         <v>39</v>
@@ -1302,73 +1302,73 @@
         <v>47</v>
       </c>
       <c r="BH4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="BI4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="BK4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="BL4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="BM4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BN4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BO4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BP4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="BQ4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="BR4" t="s">
         <v>44</v>
       </c>
       <c r="BS4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="BU4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BV4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="BW4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="BX4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BY4" t="s">
         <v>47</v>
       </c>
       <c r="BZ4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="CA4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="CB4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CC4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="CD4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="CE4" t="s">
         <v>44</v>
@@ -1377,246 +1377,246 @@
         <v>39</v>
       </c>
       <c r="CG4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="CH4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CI4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="CJ4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="CK4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="CL4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CM4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CN4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="CO4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CP4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CQ4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CR4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="CS4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CT4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CU4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="CV4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:116">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
         <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U5" t="s">
         <v>39</v>
       </c>
       <c r="V5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="W5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Z5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AC5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AD5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AE5" t="s">
         <v>39</v>
       </c>
       <c r="AF5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AG5" t="s">
         <v>39</v>
       </c>
       <c r="AH5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AJ5" t="s">
         <v>39</v>
       </c>
       <c r="AK5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AL5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AM5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AN5" t="s">
         <v>39</v>
       </c>
       <c r="AO5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AP5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AQ5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AR5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AS5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AT5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AU5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AV5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AW5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AX5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AY5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AZ5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BA5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BB5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="BC5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="BD5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BE5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="BF5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="BG5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="BH5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="BI5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="BJ5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BK5" t="s">
         <v>39</v>
       </c>
       <c r="BL5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="BM5" t="s">
         <v>39</v>
@@ -1628,16 +1628,16 @@
         <v>39</v>
       </c>
       <c r="BP5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="BQ5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="BR5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="BS5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="BT5" t="s">
         <v>39</v>
@@ -1649,28 +1649,28 @@
         <v>39</v>
       </c>
       <c r="BW5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="BX5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="BY5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CB5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CC5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="CD5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CE5" t="s">
         <v>39</v>
@@ -1679,330 +1679,330 @@
         <v>39</v>
       </c>
       <c r="CG5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="CH5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="CI5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="CJ5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="CK5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="CL5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CM5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CN5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="CO5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CP5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="CQ5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="CR5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="CS5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="CT5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="CU5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="CV5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:116">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="X6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP6" t="s">
         <v>40</v>
       </c>
-      <c r="Z6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AQ6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV6" t="s">
         <v>40</v>
       </c>
-      <c r="AC6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AW6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>40</v>
       </c>
-      <c r="AI6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN6" t="s">
+      <c r="BA6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT6" t="s">
         <v>40</v>
       </c>
-      <c r="AO6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>43</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>45</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>48</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>43</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>48</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>48</v>
-      </c>
       <c r="BU6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BV6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="BW6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="BX6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BY6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="BZ6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="CA6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CC6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="CD6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CE6" t="s">
         <v>42</v>
       </c>
       <c r="CF6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CG6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CH6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CI6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="CJ6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CK6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="CL6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="CM6" t="s">
         <v>44</v>
       </c>
       <c r="CN6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CO6" t="s">
         <v>47</v>
@@ -2011,692 +2011,692 @@
         <v>40</v>
       </c>
       <c r="CQ6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="CR6" t="s">
         <v>42</v>
       </c>
       <c r="CS6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="CT6" t="s">
+        <v>39</v>
+      </c>
+      <c r="CU6" t="s">
         <v>40</v>
       </c>
-      <c r="CU6" t="s">
-        <v>48</v>
-      </c>
       <c r="CV6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CW6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CX6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="CY6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:116">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="T7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" t="s">
-        <v>39</v>
-      </c>
-      <c r="V7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W7" t="s">
-        <v>48</v>
-      </c>
-      <c r="X7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE7" t="s">
+      <c r="BD7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG7" t="s">
         <v>40</v>
       </c>
-      <c r="AF7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ7" t="s">
+      <c r="BH7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY7" t="s">
         <v>40</v>
       </c>
-      <c r="BA7" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>48</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>44</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>44</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>47</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>44</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>48</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>43</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>48</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>44</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>48</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>47</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>48</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>48</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>43</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>48</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>44</v>
-      </c>
       <c r="BZ7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="CA7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CB7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CC7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CE7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CG7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="CH7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CI7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="CJ7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="CK7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="CL7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CM7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="CN7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="CO7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CP7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="CQ7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="CR7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CS7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CT7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CU7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CV7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="CW7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="CX7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="CY7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:116">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="R8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="T8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="X8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Y8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AA8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AD8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AE8" t="s">
         <v>47</v>
       </c>
       <c r="AF8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AG8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AJ8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AK8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AL8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AN8" t="s">
         <v>47</v>
       </c>
       <c r="AO8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AP8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AQ8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AR8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AS8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AT8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AU8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AV8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AW8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AX8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AY8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AZ8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BA8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BB8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BC8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BD8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF8" t="s">
         <v>47</v>
       </c>
       <c r="BG8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BH8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="BI8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BJ8" t="s">
         <v>47</v>
       </c>
       <c r="BK8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BL8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="BM8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BN8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BO8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BP8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BQ8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BR8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BS8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BT8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BU8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BV8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BW8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BX8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BY8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BZ8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="CA8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CB8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="CC8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="CD8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CE8" t="s">
         <v>47</v>
       </c>
       <c r="CF8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CG8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CH8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="CI8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CJ8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="CK8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="CL8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CM8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="CN8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="CO8" t="s">
         <v>47</v>
       </c>
       <c r="CP8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CQ8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CR8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CS8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CT8" t="s">
         <v>47</v>
       </c>
       <c r="CU8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="CV8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="CW8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CX8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CY8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="CZ8" t="s">
         <v>42</v>
       </c>
       <c r="DA8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="DB8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="DC8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="DD8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="DE8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="DF8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="DG8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="DH8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="DI8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="DJ8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="DK8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="DL8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
